--- a/REGULAR/PICNIC GROVE/TOLENTINO, FE.xlsx
+++ b/REGULAR/PICNIC GROVE/TOLENTINO, FE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="311">
   <si>
     <t>PERIOD</t>
   </si>
@@ -960,6 +960,12 @@
   </si>
   <si>
     <t>9/26,27/2023</t>
+  </si>
+  <si>
+    <t>11/22,29/2023</t>
+  </si>
+  <si>
+    <t>12/13,22/2023</t>
   </si>
 </sst>
 </file>
@@ -1657,8 +1663,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K518"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K520" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K520"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1987,12 +1993,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K518"/>
+  <dimension ref="A2:K520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A455" activePane="bottomLeft"/>
-      <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="E476" sqref="E476"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A461" activePane="bottomLeft"/>
+      <selection activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="J480" sqref="J480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2159,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>183.14099999999996</v>
+        <v>182.64099999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2163,7 +2169,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>146.125</v>
+        <v>148.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12245,15 +12251,17 @@
       <c r="B476" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C476" s="13"/>
+      <c r="C476" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D476" s="39">
         <v>2</v>
       </c>
       <c r="E476" s="9"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G476" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H476" s="39"/>
       <c r="I476" s="9"/>
@@ -12267,13 +12275,15 @@
         <v>45230</v>
       </c>
       <c r="B477" s="20"/>
-      <c r="C477" s="13"/>
+      <c r="C477" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D477" s="39"/>
       <c r="E477" s="9"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G477" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H477" s="39"/>
       <c r="I477" s="9"/>
@@ -12284,9 +12294,13 @@
       <c r="A478" s="40">
         <v>45260</v>
       </c>
-      <c r="B478" s="20"/>
+      <c r="B478" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C478" s="13"/>
-      <c r="D478" s="39"/>
+      <c r="D478" s="39">
+        <v>1</v>
+      </c>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
       <c r="G478" s="13" t="str">
@@ -12296,15 +12310,19 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
+      <c r="K478" s="49">
+        <v>45266</v>
+      </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B479" s="20"/>
+      <c r="A479" s="40"/>
+      <c r="B479" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C479" s="13"/>
-      <c r="D479" s="39"/>
+      <c r="D479" s="39">
+        <v>2</v>
+      </c>
       <c r="E479" s="9"/>
       <c r="F479" s="20"/>
       <c r="G479" s="13" t="str">
@@ -12314,13 +12332,15 @@
       <c r="H479" s="39"/>
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
-      <c r="K479" s="20"/>
+      <c r="K479" s="49" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A480" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B480" s="20"/>
+      <c r="A480" s="40"/>
+      <c r="B480" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="C480" s="13"/>
       <c r="D480" s="39"/>
       <c r="E480" s="9"/>
@@ -12332,11 +12352,13 @@
       <c r="H480" s="39"/>
       <c r="I480" s="9"/>
       <c r="J480" s="11"/>
-      <c r="K480" s="20"/>
+      <c r="K480" s="49" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12354,7 +12376,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12372,7 +12394,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12389,7 +12411,9 @@
       <c r="K483" s="20"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A484" s="40"/>
+      <c r="A484" s="40">
+        <v>45382</v>
+      </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
       <c r="D484" s="39"/>
@@ -12405,7 +12429,9 @@
       <c r="K484" s="20"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A485" s="40"/>
+      <c r="A485" s="40">
+        <v>45412</v>
+      </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
@@ -12933,20 +12959,52 @@
       <c r="K517" s="20"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A518" s="41"/>
-      <c r="B518" s="15"/>
-      <c r="C518" s="42"/>
-      <c r="D518" s="43"/>
+      <c r="A518" s="40"/>
+      <c r="B518" s="20"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="39"/>
       <c r="E518" s="9"/>
-      <c r="F518" s="15"/>
-      <c r="G518" s="42" t="str">
+      <c r="F518" s="20"/>
+      <c r="G518" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H518" s="43"/>
+      <c r="H518" s="39"/>
       <c r="I518" s="9"/>
-      <c r="J518" s="12"/>
-      <c r="K518" s="15"/>
+      <c r="J518" s="11"/>
+      <c r="K518" s="20"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="40"/>
+      <c r="B519" s="20"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="39"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="39"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="20"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" s="41"/>
+      <c r="B520" s="15"/>
+      <c r="C520" s="42"/>
+      <c r="D520" s="43"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="15"/>
+      <c r="G520" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H520" s="43"/>
+      <c r="I520" s="9"/>
+      <c r="J520" s="12"/>
+      <c r="K520" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
